--- a/2023/IITH/Cisco Ph2/Optics/blocked_ports_results.xlsx
+++ b/2023/IITH/Cisco Ph2/Optics/blocked_ports_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t xml:space="preserve">Hostname</t>
   </si>
@@ -40,6 +40,18 @@
     <t xml:space="preserve">BHJ-A-6F-SW</t>
   </si>
   <si>
+    <t xml:space="preserve">MST0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gi1/0/47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MST2</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHJ-A-9F-SW</t>
   </si>
   <si>
@@ -49,6 +61,12 @@
     <t xml:space="preserve">BHJ-B-3F-SW</t>
   </si>
   <si>
+    <t xml:space="preserve">Te1/1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MST3</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHJ-B-6F-SW</t>
   </si>
   <si>
@@ -61,24 +79,12 @@
     <t xml:space="preserve">BHK-A-3F-SW</t>
   </si>
   <si>
-    <t xml:space="preserve">MST0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gi1/0/47</t>
-  </si>
-  <si>
     <t xml:space="preserve">BHK-A-6F-SW</t>
   </si>
   <si>
     <t xml:space="preserve">Te1/1/1</t>
   </si>
   <si>
-    <t xml:space="preserve">MST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MST2</t>
-  </si>
-  <si>
     <t xml:space="preserve">BHK-A-9F-SW</t>
   </si>
   <si>
@@ -97,6 +103,30 @@
     <t xml:space="preserve">BHK-B-GF-SW</t>
   </si>
   <si>
+    <t xml:space="preserve">BHL-A-3F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-A-6F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-A-9F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-A-GF-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-B-3F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-B-6F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-B-9F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHL-B-GF-SW</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHM-A-3F-SW</t>
   </si>
   <si>
@@ -161,12 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">BHP-B-3F-SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Te1/1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MST3</t>
   </si>
   <si>
     <t xml:space="preserve">BHP-B-6F-SW</t>
@@ -496,17 +520,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,37 +560,31 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
@@ -577,7 +595,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>4</v>
@@ -588,35 +606,29 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,75 +636,75 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>4</v>
@@ -703,7 +715,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>4</v>
@@ -714,51 +726,45 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>4</v>
@@ -769,7 +775,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>4</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>4</v>
@@ -791,100 +797,94 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="B31" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="B32" s="0" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="B35" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>4</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>4</v>
@@ -906,56 +906,56 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="B39" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="B41" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="B42" s="0" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>4</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>4</v>
@@ -977,67 +977,67 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="B46" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="B47" s="0" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="B49" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="B50" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>4</v>
@@ -1048,40 +1048,34 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="B53" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="B54" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>4</v>
@@ -1092,7 +1086,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>4</v>
@@ -1103,7 +1097,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>4</v>
@@ -1114,7 +1108,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>4</v>
@@ -1125,67 +1119,67 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>51</v>
+      </c>
       <c r="B60" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="B61" s="0" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="B63" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="B64" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>4</v>
@@ -1196,50 +1190,296 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="B67" s="0" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="B69" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="B84" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>4</v>
       </c>
     </row>

--- a/2023/IITH/Cisco Ph2/Optics/blocked_ports_results.xlsx
+++ b/2023/IITH/Cisco Ph2/Optics/blocked_ports_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="77">
   <si>
     <t xml:space="preserve">Hostname</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">BHK-B-9F-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gi1/0/48</t>
   </si>
   <si>
     <t xml:space="preserve">BHK-B-GF-SW</t>
@@ -520,17 +523,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,42 +730,48 @@
         <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C22" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>4</v>
@@ -775,56 +782,56 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="B27" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>4</v>
@@ -835,105 +842,105 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="B34" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="B37" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="B38" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="B39" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>4</v>
@@ -944,7 +951,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>4</v>
@@ -955,7 +962,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>4</v>
@@ -966,7 +973,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>4</v>
@@ -977,7 +984,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>4</v>
@@ -988,7 +995,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>4</v>
@@ -999,7 +1006,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>4</v>
@@ -1010,13 +1017,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,20 +1031,20 @@
         <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>4</v>
@@ -1048,34 +1055,40 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="B53" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="B54" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>4</v>
@@ -1086,7 +1099,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>4</v>
@@ -1097,7 +1110,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>4</v>
@@ -1108,40 +1121,34 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="B59" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="B60" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>4</v>
@@ -1152,45 +1159,45 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C63" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="B65" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>4</v>
@@ -1201,56 +1208,56 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="B70" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="B71" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>4</v>
@@ -1261,67 +1268,67 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="B74" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="B75" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="B77" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="B78" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>4</v>
@@ -1332,45 +1339,45 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C81" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="B83" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>4</v>
@@ -1381,7 +1388,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>4</v>
@@ -1392,7 +1399,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>4</v>
@@ -1403,7 +1410,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>4</v>
@@ -1414,72 +1421,50 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="B89" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="B90" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="B91" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="B92" s="0" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="0" t="s">
         <v>4</v>
       </c>
     </row>
